--- a/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E88A37F8-59D9-4140-B36B-0CB229C5C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13B316A-86A7-4909-8410-45EA3B11FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ADE9B85-757A-43AB-AEB4-AF582CA7BFF8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B12C7BE8-90D8-4994-AFF6-517D00E93ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="369">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -97,1084 +97,1054 @@
     <t>1,47%</t>
   </si>
   <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0143B6-8CD2-454D-9D6E-D68F40E78FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC5AE6-655E-49E3-B761-C6A8BC13C483}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1973,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -1982,13 +1952,13 @@
         <v>28906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -1997,13 +1967,13 @@
         <v>31552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,10 +1988,10 @@
         <v>576008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -2033,13 +2003,13 @@
         <v>546690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>1115</v>
@@ -2048,13 +2018,13 @@
         <v>1122698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,7 +2080,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2122,13 +2092,13 @@
         <v>2064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2137,13 +2107,13 @@
         <v>1940</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2152,13 +2122,13 @@
         <v>4004</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,10 +2146,10 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2188,13 +2158,13 @@
         <v>81748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2203,13 +2173,13 @@
         <v>95928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2194,13 @@
         <v>945555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>828</v>
@@ -2239,13 +2209,13 @@
         <v>884705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1709</v>
@@ -2254,13 +2224,13 @@
         <v>1830261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2286,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2328,13 +2298,13 @@
         <v>2754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2343,13 +2313,13 @@
         <v>2482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2358,13 +2328,13 @@
         <v>5236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2349,13 @@
         <v>10284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2394,13 +2364,13 @@
         <v>37609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -2409,13 +2379,13 @@
         <v>47893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2400,13 @@
         <v>665471</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>654</v>
@@ -2445,13 +2415,13 @@
         <v>643750</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>1284</v>
@@ -2460,13 +2430,13 @@
         <v>1309221</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,7 +2492,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2534,13 +2504,13 @@
         <v>5573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2549,13 +2519,13 @@
         <v>8061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -2564,13 +2534,13 @@
         <v>13634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2555,13 @@
         <v>28193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -2600,13 +2570,13 @@
         <v>98969</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2615,13 +2585,13 @@
         <v>127161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2606,13 @@
         <v>908456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>895</v>
@@ -2651,13 +2621,13 @@
         <v>931582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>1854</v>
@@ -2666,13 +2636,13 @@
         <v>1840039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2710,13 @@
         <v>10392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2755,13 +2725,13 @@
         <v>12483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2773,10 +2743,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2761,13 @@
         <v>55303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -2806,13 +2776,13 @@
         <v>251449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>299</v>
@@ -2821,13 +2791,13 @@
         <v>306752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2812,13 @@
         <v>3210849</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>3039</v>
@@ -2857,22 +2827,22 @@
         <v>3115266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>6190</v>
       </c>
       <c r="N26" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>151</v>
@@ -2920,7 +2890,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -2955,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE09959-EDCB-4182-8449-5BD1C85F417B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6568C-0AFE-4EBB-8A9D-E64415E3DF0D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3163,7 +3133,7 @@
         <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>165</v>
@@ -3300,13 +3270,13 @@
         <v>3032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3315,13 +3285,13 @@
         <v>3032</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3306,13 @@
         <v>8408</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3351,13 +3321,13 @@
         <v>17654</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3366,7 +3336,7 @@
         <v>26062</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>185</v>
@@ -3402,22 +3372,22 @@
         <v>563499</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1074</v>
       </c>
       <c r="N10" s="7">
-        <v>1141649</v>
+        <v>1141650</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>193</v>
@@ -3465,7 +3435,7 @@
         <v>1101</v>
       </c>
       <c r="N11" s="7">
-        <v>1170743</v>
+        <v>1170744</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>26</v>
@@ -3479,7 +3449,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3506,13 +3476,13 @@
         <v>5306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3521,13 +3491,13 @@
         <v>8811</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,10 +3515,10 @@
         <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3557,13 +3527,13 @@
         <v>70505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3572,13 +3542,13 @@
         <v>82822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3563,13 @@
         <v>995989</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>866</v>
@@ -3608,13 +3578,13 @@
         <v>951911</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1782</v>
@@ -3623,13 +3593,13 @@
         <v>1947901</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,7 +3655,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3697,7 +3667,7 @@
         <v>911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -3712,13 +3682,13 @@
         <v>6839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3727,13 +3697,13 @@
         <v>7750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3718,13 @@
         <v>25537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -3763,13 +3733,13 @@
         <v>48636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3799,13 +3769,13 @@
         <v>729111</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -3814,13 +3784,13 @@
         <v>716547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="M18" s="7">
         <v>1313</v>
@@ -3829,13 +3799,13 @@
         <v>1445658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3861,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3903,7 +3873,7 @@
         <v>1923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -3918,13 +3888,13 @@
         <v>16733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -3936,10 +3906,10 @@
         <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3924,13 @@
         <v>31081</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -3969,13 +3939,13 @@
         <v>91311</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -3984,13 +3954,13 @@
         <v>122392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3975,13 @@
         <v>911918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>894</v>
@@ -4020,13 +3990,13 @@
         <v>940920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1769</v>
@@ -4035,13 +4005,13 @@
         <v>1852837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4079,13 @@
         <v>7216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4124,13 +4094,13 @@
         <v>32967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -4139,13 +4109,13 @@
         <v>40183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4130,13 @@
         <v>78084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -4175,13 +4145,13 @@
         <v>230131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -4190,13 +4160,13 @@
         <v>308216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4181,13 @@
         <v>3328350</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H26" s="7">
         <v>3036</v>
@@ -4226,13 +4196,13 @@
         <v>3281700</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>6153</v>
@@ -4241,13 +4211,13 @@
         <v>6610051</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD96FB-0258-4778-8A29-5A39AD7BD579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C07E0-C01C-4772-A65F-6A16BE290B34}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4341,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4454,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4463,13 +4433,13 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4478,13 +4448,13 @@
         <v>989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4469,13 @@
         <v>2863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4514,13 +4484,13 @@
         <v>2596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4529,13 +4499,13 @@
         <v>5458</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4520,13 @@
         <v>113683</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -4565,13 +4535,13 @@
         <v>109776</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -4580,13 +4550,13 @@
         <v>223459</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4624,13 @@
         <v>2018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4669,13 +4639,13 @@
         <v>5541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4684,13 +4654,13 @@
         <v>7559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4675,13 @@
         <v>4944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4720,13 +4690,13 @@
         <v>12778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4735,13 +4705,13 @@
         <v>17722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4726,13 @@
         <v>551292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>528</v>
@@ -4771,13 +4741,13 @@
         <v>537517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -4786,13 +4756,13 @@
         <v>1088809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4818,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4866,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4875,13 +4845,13 @@
         <v>4998</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4890,13 +4860,13 @@
         <v>4998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>195</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4881,13 @@
         <v>7016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4944,7 +4914,7 @@
         <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>319</v>
@@ -4983,7 +4953,7 @@
         <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1874</v>
@@ -5054,7 +5024,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5081,13 +5051,13 @@
         <v>940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5096,13 +5066,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5087,13 @@
         <v>4576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5132,13 +5102,13 @@
         <v>23289</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5150,10 +5120,10 @@
         <v>13</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5138,13 @@
         <v>750826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>710</v>
@@ -5183,13 +5153,13 @@
         <v>757967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>1398</v>
@@ -5198,13 +5168,13 @@
         <v>1508792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,7 +5230,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5278,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5287,13 +5257,13 @@
         <v>6222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5302,13 +5272,13 @@
         <v>6222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5293,13 @@
         <v>10480</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5338,13 +5308,13 @@
         <v>34002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -5353,13 +5323,13 @@
         <v>44481</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,13 +5344,13 @@
         <v>923614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>916</v>
@@ -5389,13 +5359,13 @@
         <v>998336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>1834</v>
@@ -5404,13 +5374,13 @@
         <v>1921950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5448,13 @@
         <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -5493,13 +5463,13 @@
         <v>18690</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5508,13 +5478,13 @@
         <v>20708</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5499,13 @@
         <v>29878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -5544,13 +5514,13 @@
         <v>106067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -5559,13 +5529,13 @@
         <v>135945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5550,13 @@
         <v>3347865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>3201</v>
@@ -5595,13 +5565,13 @@
         <v>3407095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M26" s="7">
         <v>6387</v>
@@ -5610,13 +5580,13 @@
         <v>6754960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13B316A-86A7-4909-8410-45EA3B11FEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7D6280-5D81-4F75-BD1C-D3FF46C53EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B12C7BE8-90D8-4994-AFF6-517D00E93ACF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF29A36C-8752-4A05-88B6-EDE1C52E4725}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="381">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí muchas veces</t>
@@ -94,1057 +94,1093 @@
     <t>3,74%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>94,74%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>98,03%</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC5AE6-655E-49E3-B761-C6A8BC13C483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B35DA-DF46-408E-9166-2FEAC5E4FAE5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1767,13 +1803,13 @@
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>105</v>
@@ -1782,13 +1818,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>123</v>
@@ -1797,13 +1833,13 @@
         <v>108537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -1812,13 +1848,13 @@
         <v>223895</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1869,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -1848,13 +1884,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -1863,18 +1899,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1892,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1907,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1922,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1973,13 @@
         <v>2646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -1952,13 +1988,13 @@
         <v>28906</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -1967,19 +2003,19 @@
         <v>31552</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>576</v>
@@ -1988,13 +2024,13 @@
         <v>576008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>539</v>
@@ -2003,13 +2039,13 @@
         <v>546690</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>1115</v>
@@ -2018,13 +2054,13 @@
         <v>1122698</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2075,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2054,13 +2090,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2069,18 +2105,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2092,13 +2128,13 @@
         <v>2064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2107,13 +2143,13 @@
         <v>1940</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2122,13 +2158,13 @@
         <v>4004</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2179,13 @@
         <v>14180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2158,13 +2194,13 @@
         <v>81748</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2173,19 +2209,19 @@
         <v>95928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>881</v>
@@ -2194,13 +2230,13 @@
         <v>945555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>828</v>
@@ -2209,13 +2245,13 @@
         <v>884705</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1709</v>
@@ -2224,13 +2260,13 @@
         <v>1830261</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2281,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2260,13 +2296,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2275,18 +2311,18 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2298,13 +2334,13 @@
         <v>2754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2313,13 +2349,13 @@
         <v>2482</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2328,13 +2364,13 @@
         <v>5236</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2385,13 @@
         <v>10284</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2364,13 +2400,13 @@
         <v>37609</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -2379,19 +2415,19 @@
         <v>47893</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>630</v>
@@ -2400,13 +2436,13 @@
         <v>665471</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>654</v>
@@ -2415,13 +2451,13 @@
         <v>643750</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>1284</v>
@@ -2430,13 +2466,13 @@
         <v>1309221</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2487,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2466,13 +2502,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2481,18 +2517,18 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2504,13 +2540,13 @@
         <v>5573</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2519,13 +2555,13 @@
         <v>8061</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -2534,13 +2570,13 @@
         <v>13634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2591,13 @@
         <v>28193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -2570,13 +2606,13 @@
         <v>98969</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2585,19 +2621,19 @@
         <v>127161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>959</v>
@@ -2606,13 +2642,13 @@
         <v>908456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>895</v>
@@ -2621,13 +2657,13 @@
         <v>931582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>1854</v>
@@ -2636,13 +2672,13 @@
         <v>1840039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2693,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2672,13 +2708,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2687,13 +2723,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2746,13 @@
         <v>10392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2725,13 +2761,13 @@
         <v>12483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2740,13 +2776,13 @@
         <v>22874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2797,13 @@
         <v>55303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -2776,13 +2812,13 @@
         <v>251449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>299</v>
@@ -2791,34 +2827,34 @@
         <v>306752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3151</v>
       </c>
       <c r="D26" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>3039</v>
@@ -2827,13 +2863,13 @@
         <v>3115266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>6190</v>
@@ -2842,13 +2878,13 @@
         <v>6326115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,16 +2896,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -2878,13 +2914,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -2893,18 +2929,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A6568C-0AFE-4EBB-8A9D-E64415E3DF0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB46DDCE-0EE7-4463-9228-56762F46E408}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2942,7 +2978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3049,13 +3085,13 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3064,13 +3100,13 @@
         <v>1057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3079,13 +3115,13 @@
         <v>1934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3136,13 @@
         <v>740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3121,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3130,19 +3166,19 @@
         <v>2766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>119</v>
@@ -3151,13 +3187,13 @@
         <v>113183</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>96</v>
@@ -3166,13 +3202,13 @@
         <v>108823</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>215</v>
@@ -3181,13 +3217,13 @@
         <v>222005</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3238,13 @@
         <v>114800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3217,13 +3253,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>220</v>
@@ -3232,18 +3268,18 @@
         <v>226705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3261,7 +3297,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3270,13 +3306,13 @@
         <v>3032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3285,13 +3321,13 @@
         <v>3032</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3342,13 @@
         <v>8408</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3321,13 +3357,13 @@
         <v>17654</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3336,19 +3372,19 @@
         <v>26062</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>543</v>
@@ -3357,13 +3393,13 @@
         <v>578150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>531</v>
@@ -3372,13 +3408,13 @@
         <v>563499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>1074</v>
@@ -3387,13 +3423,13 @@
         <v>1141650</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3444,13 @@
         <v>586558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>550</v>
@@ -3423,13 +3459,13 @@
         <v>584185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
@@ -3438,18 +3474,18 @@
         <v>1170744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3461,13 +3497,13 @@
         <v>3505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3476,13 +3512,13 @@
         <v>5306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3491,13 +3527,13 @@
         <v>8811</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3548,13 @@
         <v>12317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3527,13 +3563,13 @@
         <v>70505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3542,7 +3578,7 @@
         <v>82822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>203</v>
@@ -3554,7 +3590,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>916</v>
@@ -3614,13 +3650,13 @@
         <v>1011812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7">
         <v>936</v>
@@ -3629,13 +3665,13 @@
         <v>1027722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>1866</v>
@@ -3644,18 +3680,18 @@
         <v>2039534</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3673,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3682,13 +3718,13 @@
         <v>6839</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3697,13 +3733,13 @@
         <v>7750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3754,13 @@
         <v>25537</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -3733,13 +3769,13 @@
         <v>48636</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -3760,7 +3796,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>664</v>
@@ -3784,13 +3820,13 @@
         <v>716547</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M18" s="7">
         <v>1313</v>
@@ -3820,13 +3856,13 @@
         <v>755559</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -3835,13 +3871,13 @@
         <v>772022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
         <v>1387</v>
@@ -3850,18 +3886,18 @@
         <v>1527581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3873,13 +3909,13 @@
         <v>1923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3891,7 +3927,7 @@
         <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>236</v>
@@ -3903,7 +3939,7 @@
         <v>18657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>237</v>
@@ -3930,7 +3966,7 @@
         <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -3939,13 +3975,13 @@
         <v>91311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -3954,19 +3990,19 @@
         <v>122392</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>875</v>
@@ -3975,13 +4011,13 @@
         <v>911918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>894</v>
@@ -3990,13 +4026,13 @@
         <v>940920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>1769</v>
@@ -4005,13 +4041,13 @@
         <v>1852837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4062,13 @@
         <v>944922</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -4041,13 +4077,13 @@
         <v>1048964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>1908</v>
@@ -4056,13 +4092,13 @@
         <v>1993886</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4115,13 @@
         <v>7216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4094,13 +4130,13 @@
         <v>32967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -4109,13 +4145,13 @@
         <v>40183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4166,13 @@
         <v>78084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -4145,13 +4181,13 @@
         <v>230131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -4160,19 +4196,19 @@
         <v>308216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3117</v>
@@ -4181,13 +4217,13 @@
         <v>3328350</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H26" s="7">
         <v>3036</v>
@@ -4196,13 +4232,13 @@
         <v>3281700</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>6153</v>
@@ -4211,13 +4247,13 @@
         <v>6610051</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4268,13 @@
         <v>3413651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>3285</v>
@@ -4247,13 +4283,13 @@
         <v>3544798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>6482</v>
@@ -4262,18 +4298,18 @@
         <v>6958450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3C07E0-C01C-4772-A65F-6A16BE290B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02473DB-BF06-49D0-B63D-4B9A0D07B277}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,7 +4347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4424,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4433,13 +4469,13 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4448,7 +4484,7 @@
         <v>989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -4472,10 +4508,10 @@
         <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4484,13 +4520,13 @@
         <v>2596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4499,19 +4535,19 @@
         <v>5458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>110</v>
@@ -4520,13 +4556,13 @@
         <v>113683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -4535,13 +4571,13 @@
         <v>109776</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -4550,13 +4586,13 @@
         <v>223459</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4607,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4586,13 +4622,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4601,18 +4637,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4624,13 +4660,13 @@
         <v>2018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4639,13 +4675,13 @@
         <v>5541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4654,13 +4690,13 @@
         <v>7559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4711,13 @@
         <v>4944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4690,13 +4726,13 @@
         <v>12778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4705,19 +4741,19 @@
         <v>17722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>532</v>
@@ -4726,13 +4762,13 @@
         <v>551292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>528</v>
@@ -4741,13 +4777,13 @@
         <v>537517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -4756,13 +4792,13 @@
         <v>1088809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4813,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>547</v>
@@ -4792,13 +4828,13 @@
         <v>555836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>1086</v>
@@ -4807,18 +4843,18 @@
         <v>1114090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4836,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4845,13 +4881,13 @@
         <v>4998</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4860,13 +4896,13 @@
         <v>4998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4917,13 @@
         <v>7016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4896,13 +4932,13 @@
         <v>33403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4911,19 +4947,19 @@
         <v>40418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <v>938</v>
@@ -4932,28 +4968,28 @@
         <v>1008449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>936</v>
       </c>
       <c r="I14" s="7">
-        <v>1003501</v>
+        <v>1003500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>1874</v>
@@ -4962,13 +4998,13 @@
         <v>2011950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,28 +5019,28 @@
         <v>1015465</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="7">
         <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>1041901</v>
+        <v>1041900</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <v>1921</v>
@@ -5013,18 +5049,18 @@
         <v>2057366</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5042,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5057,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5066,13 +5102,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5123,13 @@
         <v>4576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5102,13 +5138,13 @@
         <v>23289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5120,16 +5156,16 @@
         <v>13</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7">
         <v>688</v>
@@ -5138,13 +5174,13 @@
         <v>750826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>345</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>710</v>
@@ -5153,13 +5189,13 @@
         <v>757967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="M18" s="7">
         <v>1398</v>
@@ -5168,13 +5204,13 @@
         <v>1508792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5225,13 @@
         <v>755402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="7">
         <v>734</v>
@@ -5204,13 +5240,13 @@
         <v>782196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
         <v>1426</v>
@@ -5219,18 +5255,18 @@
         <v>1537597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5248,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5257,13 +5293,13 @@
         <v>6222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5272,13 +5308,13 @@
         <v>6222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5329,13 @@
         <v>10480</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5308,13 +5344,13 @@
         <v>34002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -5323,19 +5359,19 @@
         <v>44481</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>918</v>
@@ -5344,13 +5380,13 @@
         <v>923614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>916</v>
@@ -5359,13 +5395,13 @@
         <v>998336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>1834</v>
@@ -5374,13 +5410,13 @@
         <v>1921950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5431,13 @@
         <v>934094</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>954</v>
@@ -5410,13 +5446,13 @@
         <v>1038560</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>1883</v>
@@ -5425,13 +5461,13 @@
         <v>1972654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5484,13 @@
         <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -5463,13 +5499,13 @@
         <v>18690</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5478,13 +5514,13 @@
         <v>20708</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>353</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5535,13 @@
         <v>29878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -5514,13 +5550,13 @@
         <v>106067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -5529,19 +5565,19 @@
         <v>135945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>3186</v>
@@ -5550,13 +5586,13 @@
         <v>3347865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>3201</v>
@@ -5565,13 +5601,13 @@
         <v>3407095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>6387</v>
@@ -5580,13 +5616,13 @@
         <v>6754960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5637,13 @@
         <v>3379761</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>3326</v>
@@ -5616,13 +5652,13 @@
         <v>3531852</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27" s="7">
         <v>6544</v>
@@ -5631,18 +5667,18 @@
         <v>6911613</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7D6280-5D81-4F75-BD1C-D3FF46C53EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FBE861-CC11-4DAF-BDE2-9C7BDCFFE22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF29A36C-8752-4A05-88B6-EDE1C52E4725}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B3BE11A-BF72-4895-AD18-B0B04F5CD8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -94,1093 +94,1087 @@
     <t>3,74%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>95,78%</t>
+    <t>95,86%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>97,37%</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B35DA-DF46-408E-9166-2FEAC5E4FAE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64F0749-E08E-4C66-8CBD-99EAE9DEAD6C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1803,13 +1797,13 @@
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>105</v>
@@ -1818,13 +1812,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>123</v>
@@ -1833,13 +1827,13 @@
         <v>108537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -1848,13 +1842,13 @@
         <v>223895</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1863,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -1884,13 +1878,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -1899,18 +1893,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1928,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1943,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1958,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1967,13 @@
         <v>2646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -1988,13 +1982,13 @@
         <v>28906</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -2003,19 +1997,19 @@
         <v>31552</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>576</v>
@@ -2024,13 +2018,13 @@
         <v>576008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>539</v>
@@ -2039,13 +2033,13 @@
         <v>546690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>1115</v>
@@ -2054,13 +2048,13 @@
         <v>1122698</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2069,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2090,13 +2084,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2105,18 +2099,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2128,13 +2122,13 @@
         <v>2064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2143,13 +2137,13 @@
         <v>1940</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2158,13 +2152,13 @@
         <v>4004</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2173,13 @@
         <v>14180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2194,13 +2188,13 @@
         <v>81748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2209,19 +2203,19 @@
         <v>95928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>881</v>
@@ -2230,13 +2224,13 @@
         <v>945555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>828</v>
@@ -2245,13 +2239,13 @@
         <v>884705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>1709</v>
@@ -2281,13 +2275,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2296,13 +2290,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2311,13 +2305,13 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,7 +2421,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>630</v>
@@ -2487,13 +2481,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2502,13 +2496,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2517,13 +2511,13 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,10 +2552,10 @@
         <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -2570,13 +2564,13 @@
         <v>13634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2585,13 @@
         <v>28193</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -2606,13 +2600,13 @@
         <v>98969</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2621,19 +2615,19 @@
         <v>127161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>959</v>
@@ -2642,13 +2636,13 @@
         <v>908456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>895</v>
@@ -2657,13 +2651,13 @@
         <v>931582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1854</v>
@@ -2672,13 +2666,13 @@
         <v>1840039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2687,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2708,13 +2702,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2723,13 +2717,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2740,13 @@
         <v>10392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2761,13 +2755,13 @@
         <v>12483</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
@@ -2776,13 +2770,13 @@
         <v>22874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2791,13 @@
         <v>55303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -2812,13 +2806,13 @@
         <v>251449</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>299</v>
@@ -2827,34 +2821,34 @@
         <v>306752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>3151</v>
       </c>
       <c r="D26" s="7">
-        <v>3210848</v>
+        <v>3210849</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>3039</v>
@@ -2863,28 +2857,28 @@
         <v>3115266</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>6190</v>
       </c>
       <c r="N26" s="7">
-        <v>6326115</v>
+        <v>6326114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,16 +2890,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -2914,33 +2908,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB46DDCE-0EE7-4463-9228-56762F46E408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AD6E61-A520-4A0E-A236-9B96504E6409}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,7 +2972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3085,13 +3079,13 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3100,13 +3094,13 @@
         <v>1057</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3115,13 +3109,13 @@
         <v>1934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3130,13 @@
         <v>740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3157,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3166,19 +3160,19 @@
         <v>2766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>119</v>
@@ -3187,13 +3181,13 @@
         <v>113183</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
         <v>96</v>
@@ -3202,13 +3196,13 @@
         <v>108823</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>215</v>
@@ -3217,13 +3211,13 @@
         <v>222005</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3232,13 @@
         <v>114800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3253,13 +3247,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>220</v>
@@ -3268,18 +3262,18 @@
         <v>226705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3297,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3306,13 +3300,13 @@
         <v>3032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3321,13 +3315,13 @@
         <v>3032</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3336,13 @@
         <v>8408</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3357,13 +3351,13 @@
         <v>17654</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -3372,19 +3366,19 @@
         <v>26062</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>543</v>
@@ -3393,13 +3387,13 @@
         <v>578150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>531</v>
@@ -3408,28 +3402,28 @@
         <v>563499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1074</v>
       </c>
       <c r="N10" s="7">
-        <v>1141650</v>
+        <v>1141649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3438,13 @@
         <v>586558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>550</v>
@@ -3459,33 +3453,33 @@
         <v>584185</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
       </c>
       <c r="N11" s="7">
-        <v>1170744</v>
+        <v>1170743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3497,13 +3491,13 @@
         <v>3505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3512,13 +3506,13 @@
         <v>5306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -3527,13 +3521,13 @@
         <v>8811</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3542,13 @@
         <v>12317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3563,13 +3557,13 @@
         <v>70505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3578,19 +3572,19 @@
         <v>82822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>916</v>
@@ -3599,13 +3593,13 @@
         <v>995989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>866</v>
@@ -3614,13 +3608,13 @@
         <v>951911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1782</v>
@@ -3629,13 +3623,13 @@
         <v>1947901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3644,13 @@
         <v>1011812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>936</v>
@@ -3665,13 +3659,13 @@
         <v>1027722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1866</v>
@@ -3680,13 +3674,13 @@
         <v>2039534</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3697,13 @@
         <v>911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3718,7 +3712,7 @@
         <v>6839</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>81</v>
@@ -3736,10 +3730,10 @@
         <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,10 +3748,10 @@
         <v>25537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>220</v>
@@ -3796,7 +3790,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>664</v>
@@ -3805,13 +3799,13 @@
         <v>729111</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -3820,7 +3814,7 @@
         <v>716547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>230</v>
@@ -3835,13 +3829,13 @@
         <v>1445658</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3850,13 @@
         <v>755559</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>700</v>
@@ -3871,13 +3865,13 @@
         <v>772022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1387</v>
@@ -3886,13 +3880,13 @@
         <v>1527581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3903,13 @@
         <v>1923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3924,13 +3918,13 @@
         <v>16733</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -3939,13 +3933,13 @@
         <v>18657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3954,13 @@
         <v>31081</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -3975,13 +3969,13 @@
         <v>91311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M21" s="7">
         <v>121</v>
@@ -3990,10 +3984,10 @@
         <v>122392</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>245</v>
@@ -4002,7 +3996,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>875</v>
@@ -4017,7 +4011,7 @@
         <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>894</v>
@@ -4026,13 +4020,13 @@
         <v>940920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1769</v>
@@ -4041,13 +4035,13 @@
         <v>1852837</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4056,13 @@
         <v>944922</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>1000</v>
@@ -4077,13 +4071,13 @@
         <v>1048964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>1908</v>
@@ -4092,13 +4086,13 @@
         <v>1993886</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4109,13 @@
         <v>7216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4130,13 +4124,13 @@
         <v>32967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -4145,13 +4139,13 @@
         <v>40183</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4160,13 @@
         <v>78084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -4181,13 +4175,13 @@
         <v>230131</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M25" s="7">
         <v>291</v>
@@ -4196,19 +4190,19 @@
         <v>308216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>3117</v>
@@ -4217,13 +4211,13 @@
         <v>3328350</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7">
         <v>3036</v>
@@ -4232,10 +4226,10 @@
         <v>3281700</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>272</v>
@@ -4268,13 +4262,13 @@
         <v>3413651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>3285</v>
@@ -4283,13 +4277,13 @@
         <v>3544798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>6482</v>
@@ -4298,18 +4292,18 @@
         <v>6958450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02473DB-BF06-49D0-B63D-4B9A0D07B277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59225E8-678F-418E-953A-224F1F9FD29D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4469,13 +4463,13 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4484,13 +4478,13 @@
         <v>989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4499,13 @@
         <v>2863</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4520,10 +4514,10 @@
         <v>2596</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>284</v>
@@ -4538,16 +4532,16 @@
         <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>110</v>
@@ -4556,13 +4550,13 @@
         <v>113683</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -4571,13 +4565,13 @@
         <v>109776</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>221</v>
@@ -4586,13 +4580,13 @@
         <v>223459</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4601,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4622,13 +4616,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4637,18 +4631,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4666,7 +4660,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4675,13 +4669,13 @@
         <v>5541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4690,13 +4684,13 @@
         <v>7559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4705,13 @@
         <v>4944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4726,13 +4720,13 @@
         <v>12778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>302</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4741,19 +4735,19 @@
         <v>17722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>532</v>
@@ -4762,13 +4756,13 @@
         <v>551292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>528</v>
@@ -4777,13 +4771,13 @@
         <v>537517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1060</v>
@@ -4792,13 +4786,13 @@
         <v>1088809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4807,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>547</v>
@@ -4828,13 +4822,13 @@
         <v>555836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1086</v>
@@ -4843,18 +4837,18 @@
         <v>1114090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4872,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4881,13 +4875,13 @@
         <v>4998</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4896,13 +4890,13 @@
         <v>4998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4911,13 @@
         <v>7016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4932,13 +4926,13 @@
         <v>33403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4947,19 +4941,19 @@
         <v>40418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>938</v>
@@ -4968,28 +4962,28 @@
         <v>1008449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>936</v>
       </c>
       <c r="I14" s="7">
-        <v>1003500</v>
+        <v>1003501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1874</v>
@@ -4998,13 +4992,13 @@
         <v>2011950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,28 +5013,28 @@
         <v>1015465</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>1041900</v>
+        <v>1041901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>1921</v>
@@ -5049,13 +5043,13 @@
         <v>2057366</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5087,13 +5081,13 @@
         <v>940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5102,13 +5096,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5117,13 @@
         <v>4576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5138,13 +5132,13 @@
         <v>23289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5156,16 +5150,16 @@
         <v>13</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>688</v>
@@ -5174,13 +5168,13 @@
         <v>750826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H18" s="7">
         <v>710</v>
@@ -5189,13 +5183,13 @@
         <v>757967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
         <v>1398</v>
@@ -5204,13 +5198,13 @@
         <v>1508792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5219,13 @@
         <v>755402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7">
         <v>734</v>
@@ -5240,13 +5234,13 @@
         <v>782196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>1426</v>
@@ -5255,13 +5249,13 @@
         <v>1537597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5293,13 +5287,13 @@
         <v>6222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5308,13 +5302,13 @@
         <v>6222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5323,13 @@
         <v>10480</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5344,13 +5338,13 @@
         <v>34002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -5359,19 +5353,19 @@
         <v>44481</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>918</v>
@@ -5380,13 +5374,13 @@
         <v>923614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>916</v>
@@ -5395,13 +5389,13 @@
         <v>998336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>1834</v>
@@ -5410,13 +5404,13 @@
         <v>1921950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5425,13 @@
         <v>934094</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
         <v>954</v>
@@ -5446,13 +5440,13 @@
         <v>1038560</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>1883</v>
@@ -5461,13 +5455,13 @@
         <v>1972654</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5478,13 @@
         <v>2018</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -5499,13 +5493,13 @@
         <v>18690</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5514,13 +5508,13 @@
         <v>20708</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5529,13 @@
         <v>29878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -5550,13 +5544,13 @@
         <v>106067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
         <v>136</v>
@@ -5565,19 +5559,19 @@
         <v>135945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>3186</v>
@@ -5586,13 +5580,13 @@
         <v>3347865</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>3201</v>
@@ -5601,13 +5595,13 @@
         <v>3407095</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>6387</v>
@@ -5616,13 +5610,13 @@
         <v>6754960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5631,13 @@
         <v>3379761</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>3326</v>
@@ -5652,13 +5646,13 @@
         <v>3531852</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>6544</v>
@@ -5667,18 +5661,18 @@
         <v>6911613</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FBE861-CC11-4DAF-BDE2-9C7BDCFFE22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDBD2D8-683F-4AF1-AF7D-C409AA3EA224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B3BE11A-BF72-4895-AD18-B0B04F5CD8CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B286063A-7A1A-4BA0-81D0-9B0E622CD77A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="338">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí muchas veces</t>
@@ -79,1099 +79,976 @@
     <t>0%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
   </si>
   <si>
     <t>97,37%</t>
@@ -1586,8 +1463,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64F0749-E08E-4C66-8CBD-99EAE9DEAD6C}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00313AF6-7FE1-4D47-AE14-E1EA29761C68}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1731,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1746,109 +1623,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2646</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>4218</v>
+        <v>33124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>4218</v>
+        <v>35770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>681</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>691366</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>123</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>108537</v>
+        <v>655227</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1343</v>
       </c>
       <c r="N6" s="7">
-        <v>223895</v>
+        <v>1346593</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,204 +1734,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2064</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>4004</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>2646</v>
+        <v>14180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7">
-        <v>28906</v>
+        <v>81748</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>31552</v>
+        <v>95928</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>576</v>
+        <v>881</v>
       </c>
       <c r="D10" s="7">
-        <v>576008</v>
+        <v>945555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>539</v>
+        <v>828</v>
       </c>
       <c r="I10" s="7">
-        <v>546690</v>
+        <v>884705</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1115</v>
+        <v>1709</v>
       </c>
       <c r="N10" s="7">
-        <v>1122698</v>
+        <v>1830261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,54 +1940,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2119,148 +1996,148 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2064</v>
+        <v>2754</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1940</v>
+        <v>2482</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>4004</v>
+        <v>5236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>14180</v>
+        <v>10284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>81748</v>
+        <v>37609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>95928</v>
+        <v>47893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>881</v>
+        <v>630</v>
       </c>
       <c r="D14" s="7">
-        <v>945555</v>
+        <v>665471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>828</v>
+        <v>654</v>
       </c>
       <c r="I14" s="7">
-        <v>884705</v>
+        <v>643750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>1709</v>
+        <v>1284</v>
       </c>
       <c r="N14" s="7">
-        <v>1830261</v>
+        <v>1309221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,204 +2146,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2754</v>
+        <v>5573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2482</v>
+        <v>8061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>5236</v>
+        <v>13634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>10284</v>
+        <v>28193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>37609</v>
+        <v>98969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>47893</v>
+        <v>127161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>630</v>
+        <v>959</v>
       </c>
       <c r="D18" s="7">
-        <v>665471</v>
+        <v>908456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
-        <v>654</v>
+        <v>895</v>
       </c>
       <c r="I18" s="7">
-        <v>643750</v>
+        <v>931582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
-        <v>1284</v>
+        <v>1854</v>
       </c>
       <c r="N18" s="7">
-        <v>1309221</v>
+        <v>1840039</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,204 +2352,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>5573</v>
+        <v>10392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>8061</v>
+        <v>12483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>13634</v>
+        <v>22874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7">
-        <v>28193</v>
+        <v>55303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="I21" s="7">
-        <v>98969</v>
+        <v>251449</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
+        <v>299</v>
+      </c>
+      <c r="N21" s="7">
+        <v>306752</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N21" s="7">
-        <v>127161</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>959</v>
+        <v>3151</v>
       </c>
       <c r="D22" s="7">
-        <v>908456</v>
+        <v>3210848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>895</v>
+        <v>3039</v>
       </c>
       <c r="I22" s="7">
-        <v>931582</v>
+        <v>3115265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1854</v>
+        <v>6190</v>
       </c>
       <c r="N22" s="7">
-        <v>1840039</v>
+        <v>6326115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,268 +2558,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7">
-        <v>10392</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12483</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M24" s="7">
-        <v>22</v>
-      </c>
-      <c r="N24" s="7">
-        <v>22874</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>54</v>
-      </c>
-      <c r="D25" s="7">
-        <v>55303</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="7">
-        <v>245</v>
-      </c>
-      <c r="I25" s="7">
-        <v>251449</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="7">
-        <v>299</v>
-      </c>
-      <c r="N25" s="7">
-        <v>306752</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3151</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3210849</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3039</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3115266</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6190</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6326114</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2955,8 +2625,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AD6E61-A520-4A0E-A236-9B96504E6409}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587090F7-8074-4DE5-987A-73D2A2A28C09}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2972,7 +2642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3079,145 +2749,145 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1057</v>
+        <v>4089</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>1934</v>
+        <v>4966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>740</v>
+        <v>9149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>2025</v>
+        <v>19679</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>2766</v>
+        <v>28828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>662</v>
       </c>
       <c r="D6" s="7">
-        <v>113183</v>
+        <v>691332</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
-        <v>96</v>
+        <v>627</v>
       </c>
       <c r="I6" s="7">
-        <v>108823</v>
+        <v>672322</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
-        <v>215</v>
+        <v>1289</v>
       </c>
       <c r="N6" s="7">
-        <v>222005</v>
+        <v>1363654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,204 +2896,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>121</v>
+        <v>672</v>
       </c>
       <c r="D7" s="7">
-        <v>114800</v>
+        <v>701358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>696090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>220</v>
+        <v>1321</v>
       </c>
       <c r="N7" s="7">
-        <v>226705</v>
+        <v>1397448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>3505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>3032</v>
+        <v>5306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>3032</v>
+        <v>8811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>8408</v>
+        <v>12317</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>17654</v>
+        <v>70505</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>26062</v>
+        <v>82822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>543</v>
+        <v>916</v>
       </c>
       <c r="D10" s="7">
-        <v>578150</v>
+        <v>995989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
-        <v>531</v>
+        <v>866</v>
       </c>
       <c r="I10" s="7">
-        <v>563499</v>
+        <v>951911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
-        <v>1074</v>
+        <v>1782</v>
       </c>
       <c r="N10" s="7">
-        <v>1141649</v>
+        <v>1947901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,204 +3102,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>551</v>
+        <v>930</v>
       </c>
       <c r="D11" s="7">
-        <v>586558</v>
+        <v>1011812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="I11" s="7">
-        <v>584185</v>
+        <v>1027722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
-        <v>1101</v>
+        <v>1866</v>
       </c>
       <c r="N11" s="7">
-        <v>1170743</v>
+        <v>2039534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>3505</v>
+        <v>911</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5306</v>
+        <v>6839</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>8811</v>
+        <v>7750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>12317</v>
+        <v>25537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
+        <v>44</v>
+      </c>
+      <c r="I13" s="7">
+        <v>48636</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="7">
         <v>66</v>
       </c>
-      <c r="I13" s="7">
-        <v>70505</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M13" s="7">
-        <v>77</v>
-      </c>
       <c r="N13" s="7">
-        <v>82822</v>
+        <v>74173</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>916</v>
+        <v>664</v>
       </c>
       <c r="D14" s="7">
-        <v>995989</v>
+        <v>729111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
-        <v>866</v>
+        <v>649</v>
       </c>
       <c r="I14" s="7">
-        <v>951911</v>
+        <v>716547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>1782</v>
+        <v>1313</v>
       </c>
       <c r="N14" s="7">
-        <v>1947901</v>
+        <v>1445658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,204 +3308,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>930</v>
+        <v>687</v>
       </c>
       <c r="D15" s="7">
-        <v>1011812</v>
+        <v>755559</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
-        <v>936</v>
+        <v>700</v>
       </c>
       <c r="I15" s="7">
-        <v>1027722</v>
+        <v>772022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
-        <v>1866</v>
+        <v>1387</v>
       </c>
       <c r="N15" s="7">
-        <v>2039534</v>
+        <v>1527581</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>911</v>
+        <v>1923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>6839</v>
+        <v>16733</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>7750</v>
+        <v>18657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>25537</v>
+        <v>31081</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>48636</v>
+        <v>91311</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="N17" s="7">
-        <v>74173</v>
+        <v>122392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>664</v>
+        <v>875</v>
       </c>
       <c r="D18" s="7">
-        <v>729111</v>
+        <v>911918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
-        <v>649</v>
+        <v>894</v>
       </c>
       <c r="I18" s="7">
-        <v>716547</v>
+        <v>940920</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
-        <v>1313</v>
+        <v>1769</v>
       </c>
       <c r="N18" s="7">
-        <v>1445658</v>
+        <v>1852837</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,204 +3514,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>687</v>
+        <v>908</v>
       </c>
       <c r="D19" s="7">
-        <v>755559</v>
+        <v>944922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="7">
-        <v>772022</v>
+        <v>1048964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
-        <v>1387</v>
+        <v>1908</v>
       </c>
       <c r="N19" s="7">
-        <v>1527581</v>
+        <v>1993886</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>1923</v>
+        <v>7216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>16733</v>
+        <v>32967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N20" s="7">
-        <v>18657</v>
+        <v>40183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7">
-        <v>31081</v>
+        <v>78084</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="I21" s="7">
-        <v>91311</v>
+        <v>230131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M21" s="7">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="N21" s="7">
-        <v>122392</v>
+        <v>308216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>875</v>
+        <v>3117</v>
       </c>
       <c r="D22" s="7">
-        <v>911918</v>
+        <v>3328350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
-        <v>894</v>
+        <v>3036</v>
       </c>
       <c r="I22" s="7">
-        <v>940920</v>
+        <v>3281701</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
-        <v>1769</v>
+        <v>6153</v>
       </c>
       <c r="N22" s="7">
-        <v>1852837</v>
+        <v>6610050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,268 +3720,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>908</v>
+        <v>3197</v>
       </c>
       <c r="D23" s="7">
-        <v>944922</v>
+        <v>3413651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>1000</v>
+        <v>3285</v>
       </c>
       <c r="I23" s="7">
-        <v>1048964</v>
+        <v>3544799</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>1908</v>
+        <v>6482</v>
       </c>
       <c r="N23" s="7">
-        <v>1993886</v>
+        <v>6958449</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>7</v>
-      </c>
-      <c r="D24" s="7">
-        <v>7216</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="7">
-        <v>31</v>
-      </c>
-      <c r="I24" s="7">
-        <v>32967</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M24" s="7">
-        <v>38</v>
-      </c>
-      <c r="N24" s="7">
-        <v>40183</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7">
-        <v>78084</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H25" s="7">
-        <v>218</v>
-      </c>
-      <c r="I25" s="7">
-        <v>230131</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M25" s="7">
-        <v>291</v>
-      </c>
-      <c r="N25" s="7">
-        <v>308216</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3328350</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3036</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3281700</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6153</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6610051</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3413651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544798</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6482</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6958450</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>153</v>
+      <c r="A24" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4324,8 +3787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59225E8-678F-418E-953A-224F1F9FD29D}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D66153-9F48-4DB1-AB4E-CC6E66F86AEF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4341,7 +3804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4442,151 +3905,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>989</v>
+        <v>6530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>989</v>
+        <v>8548</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7807</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2863</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
       <c r="I5" s="7">
-        <v>2596</v>
+        <v>15373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>5458</v>
+        <v>23180</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>110</v>
+        <v>642</v>
       </c>
       <c r="D6" s="7">
-        <v>113683</v>
+        <v>664976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>639</v>
       </c>
       <c r="I6" s="7">
-        <v>109776</v>
+        <v>647293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1281</v>
       </c>
       <c r="N6" s="7">
-        <v>223459</v>
+        <v>1312268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,204 +4058,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>669196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1314</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1343996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>5541</v>
+        <v>4998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>7559</v>
+        <v>4998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>4944</v>
+        <v>7016</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="7">
         <v>35</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
       <c r="I9" s="7">
-        <v>12778</v>
+        <v>33403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N9" s="7">
-        <v>17722</v>
+        <v>40418</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>532</v>
+        <v>938</v>
       </c>
       <c r="D10" s="7">
-        <v>551292</v>
+        <v>1008449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>528</v>
+        <v>936</v>
       </c>
       <c r="I10" s="7">
-        <v>537517</v>
+        <v>1003501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
-        <v>1060</v>
+        <v>1874</v>
       </c>
       <c r="N10" s="7">
-        <v>1088809</v>
+        <v>2011950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,54 +4264,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>945</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1015465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
-        <v>547</v>
+        <v>976</v>
       </c>
       <c r="I11" s="7">
-        <v>555836</v>
+        <v>1041901</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
-        <v>1086</v>
+        <v>1921</v>
       </c>
       <c r="N11" s="7">
-        <v>1114090</v>
+        <v>2057366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4866,139 +4329,139 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>4998</v>
+        <v>940</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>4998</v>
+        <v>940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>7016</v>
+        <v>4576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>33403</v>
+        <v>23289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>40418</v>
+        <v>27865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="D14" s="7">
-        <v>1008449</v>
+        <v>750826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>936</v>
+        <v>710</v>
       </c>
       <c r="I14" s="7">
-        <v>1003501</v>
+        <v>757967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>1874</v>
+        <v>1398</v>
       </c>
       <c r="N14" s="7">
-        <v>2011950</v>
+        <v>1508792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,54 +4470,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>945</v>
+        <v>692</v>
       </c>
       <c r="D15" s="7">
-        <v>1015465</v>
+        <v>755402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I15" s="7">
-        <v>1041901</v>
+        <v>782196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
-        <v>1921</v>
+        <v>1426</v>
       </c>
       <c r="N15" s="7">
-        <v>2057366</v>
+        <v>1537597</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5072,139 +4535,139 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>940</v>
+        <v>6222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>940</v>
+        <v>6222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>4576</v>
+        <v>10480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>23289</v>
+        <v>34002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>27865</v>
+        <v>44481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>688</v>
+        <v>918</v>
       </c>
       <c r="D18" s="7">
-        <v>750826</v>
+        <v>923614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
-        <v>710</v>
+        <v>916</v>
       </c>
       <c r="I18" s="7">
-        <v>757967</v>
+        <v>998336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
-        <v>1398</v>
+        <v>1834</v>
       </c>
       <c r="N18" s="7">
-        <v>1508792</v>
+        <v>1921950</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,204 +4676,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>692</v>
+        <v>929</v>
       </c>
       <c r="D19" s="7">
-        <v>755402</v>
+        <v>934094</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
-        <v>734</v>
+        <v>954</v>
       </c>
       <c r="I19" s="7">
-        <v>782196</v>
+        <v>1038560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
-        <v>1426</v>
+        <v>1883</v>
       </c>
       <c r="N19" s="7">
-        <v>1537597</v>
+        <v>1972654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>6222</v>
+        <v>18690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>6222</v>
+        <v>20708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>10480</v>
+        <v>29878</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="H21" s="7">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I21" s="7">
-        <v>34002</v>
+        <v>106067</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M21" s="7">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="N21" s="7">
-        <v>44481</v>
+        <v>135945</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>918</v>
+        <v>3186</v>
       </c>
       <c r="D22" s="7">
-        <v>923614</v>
+        <v>3347865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
-        <v>916</v>
+        <v>3201</v>
       </c>
       <c r="I22" s="7">
-        <v>998336</v>
+        <v>3407095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
-        <v>1834</v>
+        <v>6387</v>
       </c>
       <c r="N22" s="7">
-        <v>1921950</v>
+        <v>6754960</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,268 +4882,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>929</v>
+        <v>3218</v>
       </c>
       <c r="D23" s="7">
-        <v>934094</v>
+        <v>3379761</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>954</v>
+        <v>3326</v>
       </c>
       <c r="I23" s="7">
-        <v>1038560</v>
+        <v>3531852</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>1883</v>
+        <v>6544</v>
       </c>
       <c r="N23" s="7">
-        <v>1972654</v>
+        <v>6911613</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7">
-        <v>19</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18690</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M24" s="7">
-        <v>21</v>
-      </c>
-      <c r="N24" s="7">
-        <v>20708</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>30</v>
-      </c>
-      <c r="D25" s="7">
-        <v>29878</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H25" s="7">
-        <v>106</v>
-      </c>
-      <c r="I25" s="7">
-        <v>106067</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M25" s="7">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="N25" s="7">
-        <v>135945</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3186</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3347865</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3201</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3407095</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6387</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6754960</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3218</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3379761</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3326</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3531852</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6544</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6911613</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
